--- a/biology/Botanique/Nymphaea_ampla/Nymphaea_ampla.xlsx
+++ b/biology/Botanique/Nymphaea_ampla/Nymphaea_ampla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphaea ampla est une espèce de plante aquatique de la famille des Nymphaeaceae.
 Nymphaea ampla ou lotus blanc est parfois appelé le lis d'eau tacheté. On le retrouve au Texas, Mexique, Caraïbes et en Amérique centrale et du Sud.
